--- a/Android/ExcelData/scheduleTable.xlsx
+++ b/Android/ExcelData/scheduleTable.xlsx
@@ -5,27 +5,63 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C769AF-153B-4EED-8E0C-68EB5CFAF0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC918E4-5D82-4E44-B218-DBD1C93CC12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39180" yWindow="780" windowWidth="35370" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="3420" windowWidth="30705" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0AA1C242-D28A-46F7-842F-BF50F003CDF4}</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{0AA1C242-D28A-46F7-842F-BF50F003CDF4}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    1: 월
+2: 화
+4: 수
+8: 목
+16: 금
+32: 토
+64: 일
+선택 요일 합산</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t>int</t>
   </si>
@@ -36,18 +72,12 @@
     <t>스케쥴 아이디</t>
   </si>
   <si>
-    <t>이름 string ID</t>
-  </si>
-  <si>
     <t>스케쥴 시작</t>
   </si>
   <si>
     <t>스케쥴 종료</t>
   </si>
   <si>
-    <t>스케쥴 일일 오픈 시작 시간</t>
-  </si>
-  <si>
     <t>스케쥴 일일 오픈 종료 시간</t>
   </si>
   <si>
@@ -57,9 +87,6 @@
     <t>schedule_id</t>
   </si>
   <si>
-    <t>name_id</t>
-  </si>
-  <si>
     <t>date_start</t>
   </si>
   <si>
@@ -75,61 +102,31 @@
     <t>day_of_week</t>
   </si>
   <si>
-    <t>pass_season_0001</t>
-  </si>
-  <si>
     <t>패스 시즌 1</t>
   </si>
   <si>
-    <t>dungeon_day_of_week01</t>
-  </si>
-  <si>
     <t>요일던전_월</t>
   </si>
   <si>
-    <t>dungeon_day_of_week02</t>
-  </si>
-  <si>
     <t>요일던전_화</t>
   </si>
   <si>
-    <t>dungeon_day_of_week03</t>
-  </si>
-  <si>
     <t>요일던전_수</t>
   </si>
   <si>
-    <t>dungeon_day_of_week04</t>
-  </si>
-  <si>
     <t>요일던전_목</t>
   </si>
   <si>
-    <t>dungeon_day_of_week05</t>
-  </si>
-  <si>
     <t>요일던전_금</t>
   </si>
   <si>
-    <t>dungeon_day_of_week06</t>
-  </si>
-  <si>
     <t>요일던전_토</t>
   </si>
   <si>
-    <t>dungeon_day_of_week07</t>
-  </si>
-  <si>
     <t>요일던전_일</t>
   </si>
   <si>
-    <t>dungeon_day_of_week08</t>
-  </si>
-  <si>
     <t>요일 던전_월수금</t>
-  </si>
-  <si>
-    <t>dungeon_day_of_week09</t>
   </si>
   <si>
     <t>요일 던전_화목토</t>
@@ -143,11 +140,120 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>info</t>
+    <t>매일 초기화 시간</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>05:00:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:59:59</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2090-01-01 23:59:59</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Schedule_Data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스케쥴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오픈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케쥴 설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#info</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +288,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,12 +320,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF073763"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -278,9 +399,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -288,6 +406,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -305,6 +433,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="박 혁로" id="{80CBA507-D982-4928-B4D0-8AB6FBA5FA6E}" userId="S::elmeus@fluffyduck.co.kr::cea42b04-bac9-4a20-80ff-fdd315f48985" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,29 +702,43 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F4" dT="2024-01-04T11:28:45.75" personId="{80CBA507-D982-4928-B4D0-8AB6FBA5FA6E}" id="{0AA1C242-D28A-46F7-842F-BF50F003CDF4}">
+    <text>1: 월
+2: 화
+4: 수
+8: 목
+16: 금
+32: 토
+64: 일
+선택 요일 합산</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -598,345 +746,333 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7">
+        <v>127</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7">
+        <v>127</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="7">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="7">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="7">
+        <v>32</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="7">
+        <v>64</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="7">
+        <v>21</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="7">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Android/ExcelData/scheduleTable.xlsx
+++ b/Android/ExcelData/scheduleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC918E4-5D82-4E44-B218-DBD1C93CC12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1FDD74-5805-4FD5-BFCD-C6F57290FF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="3420" windowWidth="30705" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="495" windowWidth="24135" windowHeight="19770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!schedule" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>int</t>
   </si>
@@ -254,6 +254,10 @@
   </si>
   <si>
     <t>#info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -411,12 +415,15 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,7 +729,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -771,8 +778,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
+      <c r="A3" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>

--- a/Android/ExcelData/scheduleTable.xlsx
+++ b/Android/ExcelData/scheduleTable.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1FDD74-5805-4FD5-BFCD-C6F57290FF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852FA0CA-FC6B-4F11-B72B-EC25A249C3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="495" windowWidth="24135" windowHeight="19770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="2025" windowWidth="34815" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="!schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="schedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>int</t>
   </si>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2024-01-01 23:59:59</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>매일 초기화 시간</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -149,10 +145,6 @@
   </si>
   <si>
     <t>04:59:59</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2090-01-01 23:59:59</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -258,6 +250,18 @@
   </si>
   <si>
     <t>key_1:int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-02-01 06:00:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-03-01 23:59:59</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2099-12-31 23:59:59</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +733,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -745,7 +749,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -765,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
@@ -774,12 +778,12 @@
         <v>6</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -820,7 +824,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
@@ -831,19 +835,19 @@
         <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F5" s="7">
         <v>127</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -851,16 +855,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F6" s="7">
         <v>127</v>
@@ -874,16 +878,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -897,16 +901,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
@@ -920,16 +924,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="7">
         <v>4</v>
@@ -943,16 +947,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F10" s="7">
         <v>8</v>
@@ -966,16 +970,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F11" s="7">
         <v>16</v>
@@ -989,16 +993,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F12" s="7">
         <v>32</v>
@@ -1012,16 +1016,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F13" s="7">
         <v>64</v>
@@ -1035,16 +1039,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F14" s="7">
         <v>21</v>
@@ -1058,16 +1062,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F15" s="7">
         <v>42</v>

--- a/Android/ExcelData/scheduleTable.xlsx
+++ b/Android/ExcelData/scheduleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852FA0CA-FC6B-4F11-B72B-EC25A249C3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF5A162-703D-43E8-9F33-4F04107EEEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="2025" windowWidth="34815" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="780" windowWidth="34815" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -38,22 +38,430 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={0AA1C242-D28A-46F7-842F-BF50F003CDF4}</author>
+    <author>전홍림</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{0AA1C242-D28A-46F7-842F-BF50F003CDF4}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{0BF37F3B-BB18-4E1C-8F52-2FF7B17C82B7}">
       <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    1: 월
-2: 화
-4: 수
-8: 목
-16: 금
-32: 토
-64: 일
-선택 요일 합산</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>c#</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> DayOfWeek </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변수를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하도록</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하겠습니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>복수의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>날짜</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능하니</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>배열로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>요일을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력하는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방식으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하겠습니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>직관적으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시하기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방법으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보여집니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+0 : Sunday
+1 : Monday
+2 : Tuesday
+3 : Wednesday
+4 : Thursday
+5 : Friday
+6 : Saturday
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -61,10 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
-  <si>
-    <t>int</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>string</t>
   </si>
@@ -97,9 +502,6 @@
   </si>
   <si>
     <t>time_close</t>
-  </si>
-  <si>
-    <t>day_of_week</t>
   </si>
   <si>
     <t>패스 시즌 1</t>
@@ -264,12 +666,32 @@
     <t>2099-12-31 23:59:59</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_of_weeks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +736,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -447,9 +884,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="박 혁로" id="{80CBA507-D982-4928-B4D0-8AB6FBA5FA6E}" userId="S::elmeus@fluffyduck.co.kr::cea42b04-bac9-4a20-80ff-fdd315f48985" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,27 +1148,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F4" dT="2024-01-04T11:28:45.75" personId="{80CBA507-D982-4928-B4D0-8AB6FBA5FA6E}" id="{0AA1C242-D28A-46F7-842F-BF50F003CDF4}">
-    <text>1: 월
-2: 화
-4: 수
-8: 목
-16: 금
-32: 토
-64: 일
-선택 요일 합산</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -749,7 +1169,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -760,71 +1180,71 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
@@ -832,22 +1252,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7">
-        <v>127</v>
+        <v>24</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -855,22 +1275,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7">
-        <v>127</v>
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -878,22 +1298,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -901,22 +1321,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -924,22 +1344,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -947,22 +1367,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -970,22 +1390,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -993,22 +1413,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="7">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1016,22 +1436,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1039,22 +1459,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="7">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1062,22 +1482,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D15" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
